--- a/results/real_data_freelancer_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_10/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/real_data_freelancer_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_10/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_freelancer_0.1_opt_constrained\k=0.1\ROI_greedy\dataset_10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09961715-3D03-4D4C-ABAB-9DBDB95203F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_10_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +229,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +382,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +702,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.7555555555555555</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="O2">
         <v>182</v>
@@ -612,19 +711,19 @@
         <v>47</v>
       </c>
       <c r="Q2">
-        <v>1.353859085366737</v>
+        <v>1.3538590853667369</v>
       </c>
       <c r="R2">
-        <v>71.36862298776337</v>
+        <v>71.368622987763374</v>
       </c>
       <c r="S2">
-        <v>3.872340425531915</v>
+        <v>3.8723404255319149</v>
       </c>
       <c r="T2">
-        <v>5.857142857142857</v>
+        <v>5.8571428571428568</v>
       </c>
       <c r="U2">
-        <v>1.767661917648994</v>
+        <v>1.7676619176489941</v>
       </c>
       <c r="V2">
         <v>64.87909972937112</v>
@@ -642,7 +741,7 @@
         <v>1.046742209631728</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +782,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9056603773584906</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="O3">
         <v>156</v>
@@ -692,22 +791,22 @@
         <v>50</v>
       </c>
       <c r="Q3">
-        <v>1.137833001821391</v>
+        <v>1.1378330018213909</v>
       </c>
       <c r="R3">
-        <v>49.10834990893044</v>
+        <v>49.108349908930442</v>
       </c>
       <c r="S3">
         <v>3.12</v>
       </c>
       <c r="T3">
-        <v>3.341463414634146</v>
+        <v>3.3414634146341462</v>
       </c>
       <c r="U3">
-        <v>1.206408859123817</v>
+        <v>1.2064088591238169</v>
       </c>
       <c r="V3">
-        <v>46.5372367759235</v>
+        <v>46.537236775923503</v>
       </c>
       <c r="W3">
         <v>822</v>
@@ -719,10 +818,10 @@
         <v>812</v>
       </c>
       <c r="Z3">
-        <v>1.012315270935961</v>
+        <v>1.0123152709359611</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +862,7 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.9016393442622951</v>
+        <v>0.90163934426229508</v>
       </c>
       <c r="O4">
         <v>180</v>
@@ -772,22 +871,22 @@
         <v>58</v>
       </c>
       <c r="Q4">
-        <v>1.132513840343791</v>
+        <v>1.1325138403437911</v>
       </c>
       <c r="R4">
-        <v>56.31419726006011</v>
+        <v>56.314197260060112</v>
       </c>
       <c r="S4">
         <v>3.103448275862069</v>
       </c>
       <c r="T4">
-        <v>5.230769230769231</v>
+        <v>5.2307692307692308</v>
       </c>
       <c r="U4">
         <v>1.65455834771457</v>
       </c>
       <c r="V4">
-        <v>66.98148295942119</v>
+        <v>66.981482959421186</v>
       </c>
       <c r="W4">
         <v>717</v>
@@ -799,10 +898,10 @@
         <v>705</v>
       </c>
       <c r="Z4">
-        <v>1.017021276595745</v>
+        <v>1.0170212765957449</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -855,19 +954,19 @@
         <v>1.66875448959052</v>
       </c>
       <c r="R5">
-        <v>94.92483837474128</v>
+        <v>94.924838374741284</v>
       </c>
       <c r="S5">
-        <v>5.305555555555555</v>
+        <v>5.3055555555555554</v>
       </c>
       <c r="T5">
-        <v>7.047619047619047</v>
+        <v>7.0476190476190466</v>
       </c>
       <c r="U5">
-        <v>1.952689836040692</v>
+        <v>1.9526898360406919</v>
       </c>
       <c r="V5">
-        <v>85.99351344314547</v>
+        <v>85.993513443145474</v>
       </c>
       <c r="W5">
         <v>824</v>
@@ -882,7 +981,7 @@
         <v>1.035175879396985</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1022,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9099099099099099</v>
+        <v>0.90990990990990994</v>
       </c>
       <c r="O6">
         <v>153</v>
@@ -932,22 +1031,22 @@
         <v>42</v>
       </c>
       <c r="Q6">
-        <v>1.292768303109067</v>
+        <v>1.2927683031090671</v>
       </c>
       <c r="R6">
         <v>56.70373126941918</v>
       </c>
       <c r="S6">
-        <v>3.642857142857143</v>
+        <v>3.6428571428571428</v>
       </c>
       <c r="T6">
-        <v>4.482758620689655</v>
+        <v>4.4827586206896548</v>
       </c>
       <c r="U6">
-        <v>1.500238620469108</v>
+        <v>1.5002386204691081</v>
       </c>
       <c r="V6">
-        <v>57.49308000639586</v>
+        <v>57.493080006395857</v>
       </c>
       <c r="W6">
         <v>698</v>
@@ -962,7 +1061,7 @@
         <v>1.01453488372093</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1102,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.976</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O7">
         <v>169</v>
@@ -1015,19 +1114,19 @@
         <v>1.345709081004812</v>
       </c>
       <c r="R7">
-        <v>65.78880043578826</v>
+        <v>65.788800435788261</v>
       </c>
       <c r="S7">
-        <v>3.840909090909091</v>
+        <v>3.8409090909090908</v>
       </c>
       <c r="T7">
-        <v>4.210526315789473</v>
+        <v>4.2105263157894726</v>
       </c>
       <c r="U7">
-        <v>1.437587655507441</v>
+        <v>1.4375876555074409</v>
       </c>
       <c r="V7">
-        <v>67.37166909071723</v>
+        <v>67.371669090717234</v>
       </c>
       <c r="W7">
         <v>797</v>
@@ -1039,10 +1138,10 @@
         <v>794</v>
       </c>
       <c r="Z7">
-        <v>1.003778337531486</v>
+        <v>1.0037783375314859</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1182,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.6829268292682927</v>
+        <v>0.68292682926829273</v>
       </c>
       <c r="O8">
         <v>258</v>
@@ -1098,16 +1197,16 @@
         <v>69.09150855074833</v>
       </c>
       <c r="S8">
-        <v>2.74468085106383</v>
+        <v>2.7446808510638299</v>
       </c>
       <c r="T8">
         <v>6.333333333333333</v>
       </c>
       <c r="U8">
-        <v>1.845826690498331</v>
+        <v>1.8458266904983309</v>
       </c>
       <c r="V8">
-        <v>73.23763949953505</v>
+        <v>73.237639499535049</v>
       </c>
       <c r="W8">
         <v>1012</v>
@@ -1119,10 +1218,10 @@
         <v>960</v>
       </c>
       <c r="Z8">
-        <v>1.054166666666667</v>
+        <v>1.0541666666666669</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1262,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.7985074626865671</v>
+        <v>0.79850746268656714</v>
       </c>
       <c r="O9">
         <v>182</v>
@@ -1175,7 +1274,7 @@
         <v>1.332805676168904</v>
       </c>
       <c r="R9">
-        <v>70.02532754389259</v>
+        <v>70.025327543892587</v>
       </c>
       <c r="S9">
         <v>3.791666666666667</v>
@@ -1187,7 +1286,7 @@
         <v>1.66392609771817</v>
       </c>
       <c r="V9">
-        <v>65.40184755704574</v>
+        <v>65.401847557045741</v>
       </c>
       <c r="W9">
         <v>683</v>
@@ -1199,10 +1298,10 @@
         <v>656</v>
       </c>
       <c r="Z9">
-        <v>1.041158536585366</v>
+        <v>1.0411585365853659</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1342,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.9819819819819819</v>
+        <v>0.98198198198198194</v>
       </c>
       <c r="O10">
         <v>151</v>
@@ -1255,19 +1354,19 @@
         <v>1.328400382700988</v>
       </c>
       <c r="R10">
-        <v>57.86398469196048</v>
+        <v>57.863984691960482</v>
       </c>
       <c r="S10">
-        <v>3.775</v>
+        <v>3.7749999999999999</v>
       </c>
       <c r="T10">
-        <v>4.516129032258065</v>
+        <v>4.5161290322580649</v>
       </c>
       <c r="U10">
         <v>1.507655218124158</v>
       </c>
       <c r="V10">
-        <v>62.26268823815109</v>
+        <v>62.262688238151092</v>
       </c>
       <c r="W10">
         <v>798</v>
@@ -1279,10 +1378,10 @@
         <v>796</v>
       </c>
       <c r="Z10">
-        <v>1.00251256281407</v>
+        <v>1.0025125628140701</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1422,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.9908256880733946</v>
+        <v>0.99082568807339455</v>
       </c>
       <c r="O11">
         <v>153</v>
@@ -1335,19 +1434,19 @@
         <v>1.246248287474174</v>
       </c>
       <c r="R11">
-        <v>54.16507535113633</v>
+        <v>54.165075351136331</v>
       </c>
       <c r="S11">
-        <v>3.477272727272727</v>
+        <v>3.4772727272727271</v>
       </c>
       <c r="T11">
-        <v>3.918918918918919</v>
+        <v>3.9189189189189189</v>
       </c>
       <c r="U11">
-        <v>1.36581582977635</v>
+        <v>1.3658158297763501</v>
       </c>
       <c r="V11">
-        <v>57.46481429827506</v>
+        <v>57.464814298275058</v>
       </c>
       <c r="W11">
         <v>692</v>
@@ -1360,9 +1459,52 @@
       </c>
       <c r="Z11">
         <v>1.001447178002894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12" s="3">
+        <f>AVERAGE(J2:J11)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.87223619878061653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0228852801881831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.68292682926829273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.0541666666666669</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>